--- a/biology/Médecine/Paul_Belouino/Paul_Belouino.xlsx
+++ b/biology/Médecine/Paul_Belouino/Paul_Belouino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Belouino (né le 16 février 1812 à Tiffauges, mort le 28 avril 1876 à Paris[1]) est un médecin et un écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Belouino (né le 16 février 1812 à Tiffauges, mort le 28 avril 1876 à Paris) est un médecin et un écrivain français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Belouino est le fils de François Louis Belouino, 26 ans alors, officier de santé à Tiffauges, et de Virginie Goupil. Belouino vint à Paris étudier la médecine et fut reçu docteur en 1837. Après avoir exercé dans son département, il s'établit, en 1850, à Paris.
 Son ouvrage le plus connu est Des Passions, publié pour la première fois en 1844, en deux volumes, chez Waille, libraire à Paris. L'ouvrage est divisé en plusieurs sections et chapitres, qui abordent aussi bien des généralités philosophiques, moralistes, historiques et médicales.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des Passions considérées dans leurs rapports avec la religion, la philosophie et la médecine légale. (1844, 2 vol. in-8; 4e édit., 1873). Cet ouvrage s'inscrit dans la lignée de la Physiologie des passions de Jean-Louis Alibert. C'est une intéressante tentative pour montrer que les passions chrétiennes s'accordent avec des faits naturels et biologiques. 1re édition en 1844, la 2e en 1855 et la 3e en 1863.
 La Femme, physiologie, Histoire, Morale (1845, in-8; 4e édit., 1865, in-8), traité historique et physiologique.
